--- a/biology/Zoologie/Amiga_arnaca/Amiga_arnaca.xlsx
+++ b/biology/Zoologie/Amiga_arnaca/Amiga_arnaca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amiga
 Amiga arnaca, unique représentant du genre Amiga, est une espèce sud-américaine de lépidoptères (papillons) de la famille des Nymphalidae.
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'imago d’Amiga arnaca est un papillon d'une envergure d'environ 38 mm, au dessus marron nacré dont l'aile postérieure présente une bordure costale  marron nacré alors que tout le reste de l'aile postérieure est bleu nacré[3].
-Le revers est, pour l'aile antérieure, de couleur marron nacré, pour l'aile postérieure bleu nacré très vif à l'aire postdiscale et au bord interne. Deux bandes marron limitent les aires discale et postdiscale. Un ocelle noir cerné de jaune et doublement pupillé marque l'apex des ailes antérieures, et les ailes postérieures sont marquées d'une ligne d'ocelles cerclés de jaune dont seuls celui proche de l'angle anal et un gros proche de l'apex sont noir et pupillés[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'imago d’Amiga arnaca est un papillon d'une envergure d'environ 38 mm, au dessus marron nacré dont l'aile postérieure présente une bordure costale  marron nacré alors que tout le reste de l'aile postérieure est bleu nacré.
+Le revers est, pour l'aile antérieure, de couleur marron nacré, pour l'aile postérieure bleu nacré très vif à l'aire postdiscale et au bord interne. Deux bandes marron limitent les aires discale et postdiscale. Un ocelle noir cerné de jaune et doublement pupillé marque l'apex des ailes antérieures, et les ailes postérieures sont marquées d'une ligne d'ocelles cerclés de jaune dont seuls celui proche de l'angle anal et un gros proche de l'apex sont noir et pupillés.
 </t>
         </is>
       </c>
@@ -544,11 +558,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amiga arnaca vole toute l'année[4].
-Plantes hôtes
-Les plantes hôtes de sa chenille sont des graminées, Eleusine, Oplismenus, Ichnanthus[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amiga arnaca vole toute l'année.
 </t>
         </is>
       </c>
@@ -574,14 +588,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
+          <t>Biologie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Amiga arnaca est présent au Mexique, au Panama, au Guatemala, au Costa Rica, en Colombie, en Équateur, en Bolivie, au Brésil, au Surinam et en Guyane[2],[5],[6],[4].
-Biotope
-Amiga arnaca réside en sous-bois[4].
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des graminées, Eleusine, Oplismenus, Ichnanthus.
 </t>
         </is>
       </c>
@@ -607,14 +625,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Systématique</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Amiga arnaca a été décrite par l'entomologiste danois Johan Christian Fabricius en 1776, sous le nom initial de Papilio arnaca.
-Elle est classée dans la famille des Nymphalidae, la sous-famille des Satyrinae, la tribu des Satyrini et la sous-tribu des Euptychiina.
-Elle a longtemps été placée dans le genre Chloreuptychia, mais en 2019, une analyse de phylogénétique moléculaire a montré qu'elle n'était pas étroitement apparentée aux autres espèces de Chloreuptychia, ce qui a conduit à créer pour elle un nouveau genre : Amiga Nakahara, Willmott &amp; Espeland, 2019, dont elle est actuellement la seule espèce[7].
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amiga arnaca est présent au Mexique, au Panama, au Guatemala, au Costa Rica, en Colombie, en Équateur, en Bolivie, au Brésil, au Surinam et en Guyane.
 </t>
         </is>
       </c>
@@ -640,12 +658,86 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amiga arnaca réside en sous-bois.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Amiga_arnaca</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amiga_arnaca</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Amiga arnaca a été décrite par l'entomologiste danois Johan Christian Fabricius en 1776, sous le nom initial de Papilio arnaca.
+Elle est classée dans la famille des Nymphalidae, la sous-famille des Satyrinae, la tribu des Satyrini et la sous-tribu des Euptychiina.
+Elle a longtemps été placée dans le genre Chloreuptychia, mais en 2019, une analyse de phylogénétique moléculaire a montré qu'elle n'était pas étroitement apparentée aux autres espèces de Chloreuptychia, ce qui a conduit à créer pour elle un nouveau genre : Amiga Nakahara, Willmott &amp; Espeland, 2019, dont elle est actuellement la seule espèce.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Amiga_arnaca</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amiga_arnaca</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Nakahara et al. (2019) recensent quatre sous-espèces[7] :
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Nakahara et al. (2019) recensent quatre sous-espèces :
 Amiga arnaca adela Nakahara &amp; Espeland, 2019
 Amiga arnaca arnaca (Fabricius, 1776)
 Amiga arnaca indianacristoi Nakahara &amp; Marín, 2019
@@ -653,62 +745,66 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Amiga_arnaca</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Amiga_arnaca</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Amiga_arnaca</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amiga_arnaca</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amiga arnaca se nomme en anglais Arnaca Blue Ringlet ou Blue-smudged Satyr[5],[6].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amiga arnaca se nomme en anglais Arnaca Blue Ringlet ou Blue-smudged Satyr,.
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Amiga_arnaca</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Amiga_arnaca</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Amiga_arnaca</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amiga_arnaca</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Protection</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Pas de statut de protection particulier[réf. souhaitée].
 </t>
